--- a/200213_VISUM-NET_VERSIONING(200214,v2,김민기).xlsx
+++ b/200213_VISUM-NET_VERSIONING(200214,v2,김민기).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D066CA252ABEACE02EC4003A1486949B8DF04" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9EB0EDF3-BEA3-4725-86E5-3589AD83B10E}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D066CA252ABEACE02EC4003A1486949B8DF04" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E18B6BF6-AF1D-42C8-9C50-5FADCEE0F290}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>정류소순서수정</t>
+  </si>
+  <si>
+    <t>노선운행계통추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,7 +488,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,56 +1701,116 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>200214</v>
+      </c>
       <c r="C77">
         <f>COUNTIF($A$2:$A77,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
       </c>
       <c r="F77" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>네트워크5(200214,v16,노선운행계통추가,김민기)</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>200214</v>
+      </c>
       <c r="C78">
         <f>COUNTIF($A$2:$A78,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>time_profile_items(200214,v19,노선운행계통추가,김민기)</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>200214</v>
+      </c>
       <c r="C79">
         <f>COUNTIF($A$2:$A79,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
+        <v>line_route_items(200214,v26,노선운행계통추가,김민기)</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>200214</v>
+      </c>
       <c r="C80">
         <f>COUNTIF($A$2:$A80,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journey_sections(200214,v8,노선운행계통추가,김민기)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>200214</v>
+      </c>
       <c r="C81">
         <f>COUNTIF($A$2:$A81,표2[[#This Row],[구분]])</f>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v0,,)</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+        <v>vehicle_journeys(200214,v9,노선운행계통추가,김민기)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>COUNTIF($A$2:$A82,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1756,7 +1820,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>COUNTIF($A$2:$A83,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1766,7 +1830,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>COUNTIF($A$2:$A84,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1776,7 +1840,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>COUNTIF($A$2:$A85,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1786,7 +1850,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>COUNTIF($A$2:$A86,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1796,7 +1860,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>COUNTIF($A$2:$A87,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1806,7 +1870,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>COUNTIF($A$2:$A88,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1816,7 +1880,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>COUNTIF($A$2:$A89,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1826,7 +1890,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>COUNTIF($A$2:$A90,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1836,7 +1900,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>COUNTIF($A$2:$A91,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1846,7 +1910,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>COUNTIF($A$2:$A92,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1856,7 +1920,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>COUNTIF($A$2:$A93,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1866,7 +1930,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>COUNTIF($A$2:$A94,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1876,7 +1940,7 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>COUNTIF($A$2:$A95,표2[[#This Row],[구분]])</f>
         <v>0</v>
@@ -1886,82 +1950,134 @@
         <v>(,v0,,)</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <f>COUNTIF($A$2:$A96,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F96" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <f>COUNTIF($A$2:$A97,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F97" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <f>COUNTIF($A$2:$A98,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F98" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <f>COUNTIF($A$2:$A99,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F99" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <f>COUNTIF($A$2:$A100,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F100" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <f>COUNTIF($A$2:$A101,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F101" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <f>COUNTIF($A$2:$A102,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F102" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <f>COUNTIF($A$2:$A103,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F103" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <f>COUNTIF($A$2:$A104,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F104" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <f>COUNTIF($A$2:$A105,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F105" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <f>COUNTIF($A$2:$A106,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F106" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <f>COUNTIF($A$2:$A107,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F107" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+        <v>(,v0,,)</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <f>COUNTIF($A$2:$A108,표2[[#This Row],[구분]])</f>
+        <v>0</v>
+      </c>
       <c r="F108" s="1" t="str">
         <f>_xlfn.CONCAT(표2[[#This Row],[구분]],"(",표2[[#This Row],[일자]],",v",표2[[#This Row],[버전]],",",표2[[#This Row],[제목]],",",표2[[#This Row],[작성자]],")")</f>
-        <v>(,v,,)</v>
+        <v>(,v0,,)</v>
       </c>
     </row>
   </sheetData>
